--- a/数据整理/stocks/港股/02388-中银香港.xlsx
+++ b/数据整理/stocks/港股/02388-中银香港.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>010365</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4142</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>501025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3833</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010365</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>95.82</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501025</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.82</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -660,15 +720,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>95.00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.91</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6535</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
     </row>
@@ -688,15 +758,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>95.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.91</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3619</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -716,15 +796,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.71</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.56</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.71</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.56</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02388-中银香港.xlsx
+++ b/数据整理/stocks/港股/02388-中银香港.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6608</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3875</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02388-中银香港.xlsx
+++ b/数据整理/stocks/港股/02388-中银香港.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02388-中银香港.xlsx
+++ b/数据整理/stocks/港股/02388-中银香港.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/02388-中银香港.xlsx
+++ b/数据整理/stocks/港股/02388-中银香港.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2528</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1257,14 +1300,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.15</v>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2528</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1273,14 +1338,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.2</v>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4377</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1289,13 +1376,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.92</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02388-中银香港.xlsx
+++ b/数据整理/stocks/港股/02388-中银香港.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1495,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1506,17 +1507,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1526,14 +1547,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.3</v>
+          <t>001371</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7026</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1542,14 +1585,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5543</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1558,14 +1623,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.15</v>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5030</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1574,14 +1661,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.2</v>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5030</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1590,13 +1699,433 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3430</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1156</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011131</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国沪港深价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.92</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02388-中银香港.xlsx
+++ b/数据整理/stocks/港股/02388-中银香港.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2008,7 +2009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2019,17 +2020,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2039,14 +2060,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.08</v>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5858</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2055,14 +2098,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3774</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.3</v>
       </c>
     </row>
     <row r="4">
@@ -2071,14 +2136,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.11</v>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2087,14 +2174,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.15</v>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2103,14 +2212,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.2</v>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2119,13 +2250,373 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>162416</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝港股通恒生香港35指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.92</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/02388-中银香港.xlsx
+++ b/数据整理/stocks/港股/02388-中银香港.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>1.76</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>3.08</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>3.3</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>0.11</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.92</v>
       </c>
     </row>
@@ -600,6 +617,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3321</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方香港优选股票（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1073,7 +1526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1585,7 +2038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1869,7 +2322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1993,214 +2446,6 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501025</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6608</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010365</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3875</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006809</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0763</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006810</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0290</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2276,22 +2521,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.31</t>
+          <t>12.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6535</t>
+          <t>0.6608</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2314,22 +2559,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3619</t>
+          <t>0.3875</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2352,22 +2597,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1273</t>
+          <t>0.0763</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2390,22 +2635,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0545</t>
+          <t>0.0290</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2418,6 +2663,214 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6535</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3619</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/02388-中银香港.xlsx
+++ b/数据整理/stocks/港股/02388-中银香港.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.96</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.76</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>3.08</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>3.3</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.11</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,242 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4142</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3833</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -673,36 +898,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010365</t>
+          <t>005847</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+          <t>富国沪港深业绩驱动混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>36.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>88.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3321</t>
+          <t>0.7135</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +936,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501025</t>
+          <t>005354</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+          <t>富国沪港深行业精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>30.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>79.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1606</t>
+          <t>0.7056</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +974,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160125</t>
+          <t>010365</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方香港优选股票（QDII-LOF）</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.74</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0975</t>
+          <t>0.4457</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +1012,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>014746</t>
+          <t>501025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>贝莱德港股通远景视野混合A</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>77.96</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0964</t>
+          <t>0.1642</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +1050,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007109</t>
+          <t>011117</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方沪港深核心优势混合</t>
+          <t>富国沪港深业绩驱动混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.13</t>
+          <t>88.31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0924</t>
+          <t>0.1199</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +1088,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>014747</t>
+          <t>014746</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>贝莱德港股通远景视野混合C</t>
+          <t>贝莱德港股通远景视野混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>77.96</t>
+          <t>82.52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0707</t>
+          <t>0.0967</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -901,36 +1126,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006810</t>
+          <t>011114</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
+          <t>富国沪港深行业精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>79.74</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0496</t>
+          <t>0.0782</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +1164,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006809</t>
+          <t>014747</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
+          <t>贝莱德港股通远景视野混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.14</t>
+          <t>82.52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0469</t>
+          <t>0.0710</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +1202,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008861</t>
+          <t>006810</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>西部利得港股通新机遇灵活配置混合A</t>
+          <t>泰康港股通中证香港银行投资指数C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>74.85</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0397</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +1240,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010093</t>
+          <t>006809</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>西部利得港股通新机遇灵活配置混合C</t>
+          <t>泰康港股通中证香港银行投资指数A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>74.85</t>
+          <t>94.66</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>6.85</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0038</t>
+          <t>0.0377</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1053,6 +1278,442 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010365</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3321</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方香港优选股票（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014746</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014747</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>贝莱德港股通远景视野混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006810</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006809</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康港股通中证香港银行投资指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1526,7 +2187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2038,7 +2699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2322,7 +2983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2446,214 +3107,6 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>501025</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6608</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010365</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3875</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006809</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0763</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006810</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰康港股通中证香港银行投资指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0290</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2729,22 +3182,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.31</t>
+          <t>12.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6535</t>
+          <t>0.6608</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2767,22 +3220,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>7.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>94.08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3619</t>
+          <t>0.3875</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2805,22 +3258,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1273</t>
+          <t>0.0763</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2843,22 +3296,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0545</t>
+          <t>0.0290</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2878,81 +3331,81 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010365</t>
+          <t>501025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>13.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.82</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4142</t>
+          <t>0.6535</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2960,37 +3413,37 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501025</t>
+          <t>010365</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华港股通中证香港银行投资指数（LOF）A</t>
+          <t>鹏华港股通中证香港银行投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.82</t>
+          <t>95.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3833</t>
+          <t>0.3619</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2998,7 +3451,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -3013,22 +3466,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0666</t>
+          <t>0.1273</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3036,7 +3489,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -3056,17 +3509,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.81</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.37</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0526</t>
+          <t>0.0545</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3074,6 +3527,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>